--- a/Documentos/Planilha de Riscos.xlsx
+++ b/Documentos/Planilha de Riscos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renpa\OneDrive\Área de Trabalho\Projeto PI\Projeto-Vaccinus\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Desktop\VACCINUs\VACCINUS-28_10\Projeto-Vaccinus\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC33C2E-135B-4BDE-AB91-9403666D1C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FCDD2D-A688-476D-BD5E-1E700DA3B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,18 +53,12 @@
     <t xml:space="preserve"> Orçamento - Possibilidade de faltar verbas para a compra de peças e equipamentos, gastos ultrapassarem o teto previsto, preços de materiais e equipamentos sofrem alterações devido flutuações de câmbio.</t>
   </si>
   <si>
-    <t>Evitar e/ou Atenuar</t>
-  </si>
-  <si>
     <t>Realizar pesquisa de mercado com o objetivo de encontrar os melhores custo-benefício para os equipamentos e materiais necessários para o projeto, sem que isso cause impacto na qualidade do produto. Se houver necessidade de utilizar outros materiais e equipamentos não previstos no escopo, estes devem ter seu emprego justificado e pesquisa deve ser realizada em busca dos melhores preços, condições de pagamento e disponibilidade de entrega.</t>
   </si>
   <si>
     <t>Realizar investimentos em marketing para que o mercado perceba a viabilidade do produto.</t>
   </si>
   <si>
-    <t>Atenuar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comunicação com o cliente, negociar para entrar em acordo com os dois lados sobre mudanças e alterações </t>
   </si>
   <si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>Mau Funcionamento - Projeto próximo de finalização mas com problema de bug que não foram identificados previamente.</t>
+  </si>
+  <si>
+    <t>Evitar e/ou Mitigar</t>
+  </si>
+  <si>
+    <t>Mitigar</t>
   </si>
 </sst>
 </file>
@@ -574,22 +574,22 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.26953125" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" customWidth="1"/>
-    <col min="7" max="7" width="44.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" customWidth="1"/>
     <col min="11" max="11" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -614,12 +614,12 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -639,7 +639,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -656,20 +656,20 @@
         <v>4</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
@@ -684,15 +684,15 @@
         <v>6</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9">
         <v>3</v>
@@ -704,18 +704,18 @@
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -730,15 +730,15 @@
         <v>6</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
@@ -750,19 +750,19 @@
         <v>6</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
@@ -774,28 +774,28 @@
         <v>6</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8" s="16"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="21"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="23">
         <v>3</v>
@@ -809,9 +809,9 @@
       <c r="H12" s="25"/>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="26">
         <v>2</v>
@@ -823,9 +823,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="26">
         <v>1</v>
@@ -838,20 +838,20 @@
       </c>
       <c r="K14" s="28"/>
     </row>
-    <row r="15" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="22" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D16" s="29" t="s">
         <v>22</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.25">
-      <c r="D16" s="29" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
